--- a/src/test/java/resources/Capitals (1).xlsx
+++ b/src/test/java/resources/Capitals (1).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>860000</t>
+  </si>
+  <si>
+    <t>IRK</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -381,6 +384,9 @@
       <c r="C1" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
